--- a/03- General Pandas/Excel_Sample.xlsx
+++ b/03- General Pandas/Excel_Sample.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -474,4 +476,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>196</v>
+      </c>
+      <c r="E5">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>